--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_81_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_81_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.9425962125777803, 3.461779565235454]</t>
+          <t>[2.944974135545234, 3.4594016422680003]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.07683169443242521, 0.4034710965664998]</t>
+          <t>[0.07680913811152879, 0.40349365288739625]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.004872562065042052</v>
+        <v>0.004877965919825034</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004872562065042052</v>
+        <v>0.004877965919825034</v>
       </c>
       <c r="W2" t="n">
         <v>23.95555555555623</v>
